--- a/Output/Excel/features.xlsx
+++ b/Output/Excel/features.xlsx
@@ -1273,7 +1273,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFF0F8FF"/>
-        <x:bgColor rgb="FFF0F8FF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -1313,11 +1312,8 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1336,9 +1332,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1393,7 +1386,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1676,7 +1669,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1919,30 +1912,30 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" location="'ARITHMETIC'!A1" display="Arithmetic"/>
-    <x:hyperlink ref="B3" location="'TRIGONOMETRY'!A1" display="Trigonometry"/>
-    <x:hyperlink ref="C5" location="'SHOWINGBASICGHERKINSYNTAX'!A1" display="Showing basic gherkin syntax"/>
+    <x:hyperlink ref="B2" location="ARITHMETIC!A1" display="Arithmetic"/>
+    <x:hyperlink ref="B3" location="TRIGONOMETRY!A1" display="Trigonometry"/>
+    <x:hyperlink ref="C5" location="SHOWINGBASICGHERKINSYNTAX!A1" display="Showing basic gherkin syntax"/>
     <x:hyperlink ref="C7" location="'THETESTRUNNERISNOT(VERY)IMPORTA'!A1" display="The test runner is not (very) important"/>
-    <x:hyperlink ref="C9" location="'ADDITION'!A1" display="Addition"/>
-    <x:hyperlink ref="C10" location="'TAGDEMONSTRATOR'!A1" display="Tag demonstrator"/>
-    <x:hyperlink ref="C12" location="'SCENARIOCONTEXTFEATURES'!A1" display="Scenario Context features"/>
-    <x:hyperlink ref="C14" location="'FEATURECONTEXTFEATURES'!A1" display="FeatureContext features"/>
-    <x:hyperlink ref="C16" location="'SCENARIOOUTLINE'!A1" display="Scenario outline"/>
-    <x:hyperlink ref="C18" location="'SHOWTHEUSEOFBACKGROUND'!A1" display="Show the use of background"/>
-    <x:hyperlink ref="C20" location="'SHOWINGTABLEUSAGE'!A1" display="Showing table usage"/>
-    <x:hyperlink ref="C22" location="'SHOWTHECOMPARETOFEATURE'!A1" display="Show the compare to feature"/>
+    <x:hyperlink ref="C9" location="ADDITION!A1" display="Addition"/>
+    <x:hyperlink ref="C10" location="TAGDEMONSTRATOR!A1" display="Tag demonstrator"/>
+    <x:hyperlink ref="C12" location="SCENARIOCONTEXTFEATURES!A1" display="Scenario Context features"/>
+    <x:hyperlink ref="C14" location="FEATURECONTEXTFEATURES!A1" display="FeatureContext features"/>
+    <x:hyperlink ref="C16" location="SCENARIOOUTLINE!A1" display="Scenario outline"/>
+    <x:hyperlink ref="C18" location="SHOWTHEUSEOFBACKGROUND!A1" display="Show the use of background"/>
+    <x:hyperlink ref="C20" location="SHOWINGTABLEUSAGE!A1" display="Showing table usage"/>
+    <x:hyperlink ref="C22" location="SHOWTHECOMPARETOFEATURE!A1" display="Show the compare to feature"/>
     <x:hyperlink ref="C24" location="'SVENSKA-SUMMERING'!A1" display="Svenska - Summering"/>
-    <x:hyperlink ref="C25" location="'TESTDECULTUURINHETVLAAMS'!A1" display="Test de Cultuur in het Vlaams"/>
-    <x:hyperlink ref="C27" location="'ATTRIBUTEOVERLOADING'!A1" display="Attribute overloading"/>
-    <x:hyperlink ref="C29" location="'CALLINGSTEPSFROMSTEPDEFINITIONS'!A1" display="Calling Steps from StepDefinitions"/>
-    <x:hyperlink ref="C31" location="'STEPARGUMENTTRANSFORMATIONS'!A1" display="Step Argument Transformations"/>
-    <x:hyperlink ref="C33" location="'INJECTINGCONTEXTINTOSTEPSPECIFI'!A1" display="Injecting context into step specifications"/>
-    <x:hyperlink ref="E37" location="'NESTEDFOLDEREXAMPLE'!A1" display="Nested Folder Example"/>
-    <x:hyperlink ref="C39" location="'MULTILINEFEATUREEXAMPLE'!A1" display="Multiline Feature Example"/>
-    <x:hyperlink ref="C41" location="'SAMPLEMARKDOWNFEATURE'!A1" display="Sample Markdown Feature"/>
-    <x:hyperlink ref="C43" location="'INTERACTIVEDHTMLVIEW'!A1" display="Interactive DHTML View"/>
-    <x:hyperlink ref="C44" location="'KINDSOFVERIFICATION'!A1" display="Kinds of verification"/>
-    <x:hyperlink ref="C46" location="'CLEARINGSCREEN'!A1" display="Clearing Screen"/>
+    <x:hyperlink ref="C25" location="TESTDECULTUURINHETVLAAMS!A1" display="Test de Cultuur in het Vlaams"/>
+    <x:hyperlink ref="C27" location="ATTRIBUTEOVERLOADING!A1" display="Attribute overloading"/>
+    <x:hyperlink ref="C29" location="CALLINGSTEPSFROMSTEPDEFINITIONS!A1" display="Calling Steps from StepDefinitions"/>
+    <x:hyperlink ref="C31" location="STEPARGUMENTTRANSFORMATIONS!A1" display="Step Argument Transformations"/>
+    <x:hyperlink ref="C33" location="INJECTINGCONTEXTINTOSTEPSPECIFI!A1" display="Injecting context into step specifications"/>
+    <x:hyperlink ref="E37" location="NESTEDFOLDEREXAMPLE!A1" display="Nested Folder Example"/>
+    <x:hyperlink ref="C39" location="MULTILINEFEATUREEXAMPLE!A1" display="Multiline Feature Example"/>
+    <x:hyperlink ref="C41" location="SAMPLEMARKDOWNFEATURE!A1" display="Sample Markdown Feature"/>
+    <x:hyperlink ref="C43" location="INTERACTIVEDHTMLVIEW!A1" display="Interactive DHTML View"/>
+    <x:hyperlink ref="C44" location="KINDSOFVERIFICATION!A1" display="Kinds of verification"/>
+    <x:hyperlink ref="C46" location="CLEARINGSCREEN!A1" display="Clearing Screen"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1957,50 +1950,1068 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:AI82"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:35">
       <x:c r="A1" s="1" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:35">
       <x:c r="B3" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:35">
       <x:c r="B5" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:35">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:35">
+      <x:c r="D7" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:35">
+      <x:c r="D8" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F8" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G8" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:35">
+      <x:c r="D9" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F9" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:35">
+      <x:c r="D10" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F10" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G10" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:35">
+      <x:c r="C11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:35">
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:35">
+      <x:c r="D13" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G13" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:35">
+      <x:c r="D14" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F14" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G14" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:35">
+      <x:c r="B16" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:35">
+      <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:35">
+      <x:c r="D18" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F18" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G18" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:35">
+      <x:c r="D19" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F19" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G19" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:35">
+      <x:c r="D20" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F20" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+      <x:c r="G20" s="6" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:35">
+      <x:c r="D21" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F21" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G21" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:35">
+      <x:c r="C22" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:35">
+      <x:c r="C23" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:35">
+      <x:c r="D24" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E24" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F24" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G24" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:35">
+      <x:c r="D25" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F25" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G25" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:35">
+      <x:c r="B28" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:35">
+      <x:c r="C29" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:35">
+      <x:c r="D30" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E30" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F30" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G30" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:35">
+      <x:c r="D31" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E31" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F31" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G31" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:35">
+      <x:c r="D32" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E32" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F32" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+      <x:c r="G32" s="6" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:35">
+      <x:c r="D33" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E33" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F33" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G33" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:35">
+      <x:c r="C34" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:35">
+      <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:35">
+      <x:c r="D36" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E36" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F36" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G36" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:35">
+      <x:c r="D37" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E37" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F37" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G37" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:35">
+      <x:c r="B39" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:35">
+      <x:c r="C40" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:35">
+      <x:c r="D41" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E41" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F41" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G41" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:35">
+      <x:c r="D42" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E42" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F42" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G42" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:35">
+      <x:c r="D43" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E43" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F43" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+      <x:c r="G43" s="6" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:35">
+      <x:c r="D44" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E44" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F44" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G44" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:35">
+      <x:c r="C45" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:35">
+      <x:c r="C46" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:35">
+      <x:c r="D47" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E47" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F47" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G47" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:35">
+      <x:c r="D48" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E48" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F48" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+      <x:c r="G48" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:35">
+      <x:c r="B51" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:35">
+      <x:c r="C52" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:35">
+      <x:c r="D53" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E53" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:35">
+      <x:c r="D54" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E54" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:35">
+      <x:c r="D55" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E55" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:35">
+      <x:c r="D56" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E56" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:35">
+      <x:c r="D57" s="6" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E57" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:35">
+      <x:c r="C58" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:35">
+      <x:c r="D59" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E59" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F59" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G59" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:35">
+      <x:c r="D60" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E60" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F60" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G60" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:35">
+      <x:c r="B62" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:35">
+      <x:c r="C63" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:35">
+      <x:c r="D64" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E64" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:35">
+      <x:c r="D65" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E65" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:35">
+      <x:c r="D66" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E66" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:35">
+      <x:c r="D67" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E67" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:35">
+      <x:c r="D68" s="6" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E68" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:35">
+      <x:c r="C69" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:35">
+      <x:c r="D70" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E70" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F70" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G70" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:35">
+      <x:c r="D71" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E71" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F71" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G71" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:35">
+      <x:c r="B74" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:35">
+      <x:c r="C75" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:35">
+      <x:c r="D76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="J76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="L76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="M76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="N76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="P76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Q76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="R76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="S76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="T76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="U76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="V76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="W76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="X76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Y76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="Z76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AA76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AB76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AC76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AD76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AE76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AF76" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AG76" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AH76" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AI76" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:35">
+      <x:c r="D77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="H77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="J77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="K77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="L77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="M77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="N77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="O77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Q77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="R77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="S77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="T77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="U77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="V77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="W77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="X77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Y77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="Z77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AA77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AC77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AD77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AE77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AF77" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AG77" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AH77" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AI77" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:35">
+      <x:c r="B79" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:35">
+      <x:c r="C80" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:35">
+      <x:c r="D81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="J81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="L81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="M81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="N81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="P81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Q81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="R81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="S81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="T81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="U81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="V81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="W81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="X81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Y81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="Z81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AA81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AB81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AC81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AD81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AE81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AF81" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AG81" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AH81" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AI81" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:35">
+      <x:c r="D82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="G82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="H82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="J82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="K82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="L82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="M82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="N82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="O82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Q82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="R82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="S82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="T82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="U82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="V82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="W82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="X82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Y82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="Z82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AA82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AC82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AD82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AE82" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AF82" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AG82" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AH82" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+      <x:c r="AI82" s="6" t="n">
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2017,146 +3028,654 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D30"/>
+  <x:dimension ref="A1:F82"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="B3" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
       <x:c r="B5" s="1" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4"/>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="1" t="s">
-        <x:v>217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="B20" s="1" t="s">
-        <x:v>220</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="D7" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="D8" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="D9" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="D10" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E10" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="C11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="D12" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="D13" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="D14" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="D15" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E15" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="C16" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="B26" s="1" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4"/>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
+      <x:c r="D16" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="D17" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="D18" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="D19" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E19" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="C20" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="C21" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="C22" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="D23" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E23" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="D24" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="D25" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="D26" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E26" s="7">
+        <x:v>27311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="B28" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
       <x:c r="C29" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="C30" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="D30" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E30" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="D31" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E31" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="D32" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E32" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="D33" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E33" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="C34" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="D35" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E35" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="D36" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E36" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="D37" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E37" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="D38" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E38" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="C39" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>224</x:v>
+      <x:c r="D39" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="D40" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E40" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="D41" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E41" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="D42" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E42" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="C43" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="C44" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="C45" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="D46" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E46" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="D47" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E47" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="D48" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E48" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="D49" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E49" s="7">
+        <x:v>27311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="B52" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="C53" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="D54" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E54" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F54" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="D55" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E55" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F55" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="D56" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E56" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F56" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="D57" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E57" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F57" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="C58" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="D59" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E59" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F59" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="D60" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E60" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F60" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="D61" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E61" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F61" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="D62" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E62" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F62" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="C63" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="D64" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E64" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F64" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="D65" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E65" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F65" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="D66" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E66" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F66" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="B68" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="C69" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="D70" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E70" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F70" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="D71" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E71" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F71" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="D72" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E72" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F72" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="D73" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E73" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F73" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="C74" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="D75" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E75" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F75" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="D76" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E76" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F76" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="D77" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E77" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F77" s="7">
+        <x:v>28126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="D78" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E78" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F78" s="7">
+        <x:v>27123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="C79" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="D80" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E80" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F80" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="D81" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E81" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F81" s="7">
+        <x:v>26581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="D82" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E82" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F82" s="7">
+        <x:v>28126</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2173,7 +3692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D11"/>
+  <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2181,58 +3700,86 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
+      <x:c r="C6" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>232</x:v>
+      <x:c r="B11" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2249,7 +3796,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D13"/>
+  <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2257,65 +3804,81 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
+      <x:c r="C6" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>238</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="D10" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="D11" s="0" t="s">
-        <x:v>240</x:v>
+      <x:c r="B11" s="1" t="s">
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>181</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2332,130 +3895,142 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E24"/>
+  <x:dimension ref="A1:D21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>243</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>244</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="B5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="C6" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="B10" s="1" t="s">
-        <x:v>246</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="C11" s="8" t="s">
-        <x:v>247</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
+      <x:c r="D9" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="B15" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="B16" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>251</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="C17" s="8" t="s">
-        <x:v>252</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
       <x:c r="C18" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>253</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
       <x:c r="C19" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="B21" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="C22" s="0" t="s">
-        <x:v>255</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="D23" s="5" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="E23" s="5" t="s">
-        <x:v>257</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="D24" s="6" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="E24" s="6" t="s">
-        <x:v>259</x:v>
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2472,234 +4047,152 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E32"/>
+  <x:dimension ref="A1:D26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>260</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>262</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5"/>
-    <x:row r="7" spans="1:5">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>263</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="D8" s="5" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>265</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="D9" s="6" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="D10" s="6" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="n">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="B11" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="D11" s="6" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="E11" s="6" t="n">
+      <x:c r="D13" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="D12" s="6" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="E12" s="6" t="n">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="D13" s="6" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="E13" s="6" t="n">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="D14" s="6" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="n">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="D15" s="6" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="n">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="D16" s="6" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="n">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="D17" s="6" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="n">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="D18" s="6" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="E18" s="6" t="n">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="D19" s="6" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="E19" s="6" t="n">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="D20" s="6" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="E20" s="6" t="n">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="D21" s="6" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="E21" s="6" t="n">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="D22" s="6" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="E22" s="6" t="n">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="D23" s="6" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="E23" s="6" t="n">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="D24" s="6" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="E24" s="6" t="n">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="D25" s="6" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="E25" s="6" t="n">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="D26" s="6" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="E26" s="6" t="n">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="D27" s="6" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="E27" s="6" t="n">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="D28" s="6" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="E28" s="6" t="n">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="D29" s="6" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="E29" s="6" t="n">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="D30" s="6" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="E30" s="6" t="n">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D14" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="B18" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:5">
-      <x:c r="C32" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>289</x:v>
+      <x:c r="D20" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2716,7 +4209,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D24"/>
+  <x:dimension ref="A1:D13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2724,126 +4217,70 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>296</x:v>
+      <x:c r="B10" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>297</x:v>
+      <x:c r="C12" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
-      <x:c r="B13" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="B20" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>303</x:v>
+      <x:c r="C13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2860,7 +4297,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D36"/>
+  <x:dimension ref="A1:D51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2868,105 +4305,88 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="B6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>307</x:v>
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="C7" s="0" t="s">
-        <x:v>308</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="4" t="s">
-        <x:v>309</x:v>
+      <x:c r="C7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>229</x:v>
+      <x:c r="B9" s="1" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="B14" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
-      <x:c r="B15" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>229</x:v>
+      <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>230</x:v>
+      <x:c r="B18" s="1" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="C19" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2974,99 +4394,165 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>312</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="B22" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
-      <x:c r="B23" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4"/>
+      <x:c r="B23" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="C25" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>314</x:v>
+      <x:c r="B27" s="1" t="s">
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>315</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="B30" s="1" t="s">
-        <x:v>316</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="B31" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C31" s="3" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4"/>
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="C33" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="C34" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="C35" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>318</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
-      <x:c r="C36" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="B37" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="C38" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="C39" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="C40" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="B43" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="C44" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="C45" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="B48" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="C49" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="C50" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="C51" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>224</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3083,7 +4569,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D24"/>
+  <x:dimension ref="A1:D17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3091,17 +4577,17 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -3109,16 +4595,23 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>323</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3126,7 +4619,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -3134,12 +4627,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -3147,16 +4640,23 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>323</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -3164,7 +4664,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -3172,45 +4672,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>326</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>330</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="B20" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>323</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>331</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>332</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3227,7 +4689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D11"/>
+  <x:dimension ref="A1:D21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3235,17 +4697,17 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -3253,40 +4715,98 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>336</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="D17" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="D18" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="D19" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3303,7 +4823,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D18"/>
+  <x:dimension ref="A1:D30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3324,13 +4844,920 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4"/>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="B16" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="B24" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="C30" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E46"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="B5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="C6" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="B10" s="1" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="C11" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="C13" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="B16" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="C17" s="8" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="C18" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="C19" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="B21" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="C22" s="8" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="C23" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="C24" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="B27" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="B28" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="C29" s="8" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="C30" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="C31" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="B33" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="C34" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="D35" s="5" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E35" s="5" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="D36" s="6" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E36" s="6" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="B37" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="B38" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="C39" s="8" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="C40" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="C41" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="B43" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="C44" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="D45" s="5" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E45" s="5" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="D46" s="6" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E46" s="6" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E59"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="B5" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="D7" s="5" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="D8" s="6" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="D9" s="6" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="D10" s="6" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="n">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="D11" s="6" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="D12" s="6" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="D13" s="6" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="n">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="D14" s="6" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="D15" s="6" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="n">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="D16" s="6" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="D17" s="6" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="n">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="D18" s="6" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="6" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="n">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="D20" s="6" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="n">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="D21" s="6" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="n">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="D22" s="6" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E22" s="6" t="n">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="D23" s="6" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="n">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="D24" s="6" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="n">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="D25" s="6" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="n">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="D26" s="6" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E26" s="6" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="D27" s="6" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="n">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="D28" s="6" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="D29" s="6" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E29" s="6" t="n">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="C30" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="C31" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="B33" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="C34" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="D35" s="5" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E35" s="5" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="D36" s="6" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E36" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="D37" s="6" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E37" s="6" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="D38" s="6" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E38" s="6" t="n">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="D39" s="6" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="E39" s="6" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="D40" s="6" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E40" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="D41" s="6" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E41" s="6" t="n">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="D42" s="6" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="E42" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="D43" s="6" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E43" s="6" t="n">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="D44" s="6" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E44" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="D45" s="6" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="E45" s="6" t="n">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="D46" s="6" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E46" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="D47" s="6" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E47" s="6" t="n">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="D48" s="6" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="E48" s="6" t="n">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="D49" s="6" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="E49" s="6" t="n">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="D50" s="6" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E50" s="6" t="n">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="D51" s="6" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E51" s="6" t="n">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="D52" s="6" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E52" s="6" t="n">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="D53" s="6" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E53" s="6" t="n">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="D54" s="6" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E54" s="6" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="D55" s="6" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E55" s="6" t="n">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="D56" s="6" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E56" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="D57" s="6" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E57" s="6" t="n">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5">
+      <x:c r="C58" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5">
+      <x:c r="C59" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -3338,7 +5765,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3346,61 +5773,974 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="B11" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4"/>
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="C13" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="C14" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="B18" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="B24" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="B37" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="B38" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="C39" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="C40" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="C41" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D66"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="4" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="4" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="B24" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="B39" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="B40" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="C41" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="C42" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="C43" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="C44" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="B46" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="B47" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C47" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="C48" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="C49" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="C50" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="C51" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="B54" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="B55" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C55" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="C56" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="C57" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="C58" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="C59" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="B61" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="B62" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C62" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="C63" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="C64" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="C65" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="C66" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="B11" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="B18" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="B24" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="B37" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="B38" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="C39" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="C40" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="C41" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="C16" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3417,7 +6757,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3438,28 +6778,56 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4"/>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
@@ -3477,7 +6845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D28"/>
+  <x:dimension ref="A1:D47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3498,108 +6866,208 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4"/>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="B9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4"/>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="1" t="s">
+    <x:row r="18" spans="1:4">
+      <x:c r="B18" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="B20" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="B25" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4"/>
     <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>24</x:v>
+      <x:c r="B27" s="1" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="B36" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="C37" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="C38" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="B41" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="C42" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="C43" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="B45" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="C47" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
@@ -3617,7 +7085,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D38"/>
+  <x:dimension ref="A1:D67"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3654,180 +7122,360 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4"/>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
     <x:row r="13" spans="1:4">
-      <x:c r="B13" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
+      <x:c r="B13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
-      <x:c r="B20" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
+      <x:c r="B20" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="C23" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="D27" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="B26" s="1" t="s">
+    <x:row r="37" spans="1:4">
+      <x:c r="B37" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="B38" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="C39" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="C40" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="C41" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="B44" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="B27" s="3" t="s">
+    <x:row r="45" spans="1:4">
+      <x:c r="B45" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C27" s="3" t="s">
+      <x:c r="C45" s="3" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:4"/>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="C30" s="2" t="s">
+    <x:row r="47" spans="1:4">
+      <x:c r="C47" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="C31" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
+    <x:row r="48" spans="1:4">
+      <x:c r="C48" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:4">
-      <x:c r="B33" s="1" t="s">
+    <x:row r="50" spans="1:4">
+      <x:c r="B50" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="B51" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C51" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="C52" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="C53" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="C54" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="B57" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:4">
-      <x:c r="B34" s="3" t="s">
+    <x:row r="58" spans="1:4">
+      <x:c r="B58" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C34" s="3" t="s">
+      <x:c r="C58" s="3" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:4"/>
-    <x:row r="36" spans="1:4">
-      <x:c r="C36" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
+    <x:row r="59" spans="1:4">
+      <x:c r="C59" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:4">
-      <x:c r="C37" s="2" t="s">
+    <x:row r="60" spans="1:4">
+      <x:c r="C60" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D37" s="0" t="s">
+      <x:c r="D60" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:4">
-      <x:c r="C38" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
+    <x:row r="61" spans="1:4">
+      <x:c r="C61" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="B63" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="B64" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C64" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="C65" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="C66" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="C67" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
@@ -3845,7 +7493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F38"/>
+  <x:dimension ref="A1:F71"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4006,41 +7654,46 @@
         <x:v>1020</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="B23" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
     <x:row r="24" spans="1:6">
-      <x:c r="B24" s="1" t="s">
-        <x:v>73</x:v>
+      <x:c r="C24" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="C25" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="C26" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="C27" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
-      <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>65</x:v>
+      <x:c r="C28" s="4" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -4049,36 +7702,33 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
-      <x:c r="D31" s="5" t="s">
+      <x:c r="C31" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D31" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="D32" s="5" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E31" s="5" t="s">
+      <x:c r="E32" s="5" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="F31" s="5" t="s">
+      <x:c r="F32" s="5" t="s">
         <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="D32" s="6" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E32" s="6" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F32" s="6" t="n">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="D33" s="6" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F33" s="6" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -4086,47 +7736,314 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E34" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F34" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="D35" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E35" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F34" s="6" t="n">
+      <x:c r="F35" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
-      <x:c r="B35" s="0" t="s">
+    <x:row r="36" spans="1:6">
+      <x:c r="B36" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="D36" s="5" t="s">
+    <x:row r="37" spans="1:6">
+      <x:c r="C37" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D37" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="D38" s="5" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E36" s="5" t="s">
+      <x:c r="E38" s="5" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="F36" s="5" t="s">
+      <x:c r="F38" s="5" t="s">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="D37" s="6" t="n">
+    <x:row r="39" spans="1:6">
+      <x:c r="D39" s="6" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E37" s="6" t="n">
+      <x:c r="E39" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F37" s="6" t="n">
+      <x:c r="F39" s="6" t="n">
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="D38" s="6" t="n">
+    <x:row r="40" spans="1:6">
+      <x:c r="D40" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="E38" s="6" t="n">
+      <x:c r="E40" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F38" s="6" t="n">
+      <x:c r="F40" s="6" t="n">
+        <x:v>1020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="B42" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="C43" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="C44" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="C45" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="C46" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="B48" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="D49" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E49" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F49" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="D50" s="6" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E50" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F50" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="D51" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E51" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F51" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="D52" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E52" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F52" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="B53" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="D54" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E54" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F54" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="D55" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E55" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F55" s="6" t="n">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="D56" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E56" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F56" s="6" t="n">
+        <x:v>1020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="B57" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="C58" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="C59" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="C60" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="C61" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="B63" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="D64" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E64" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F64" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="D65" s="6" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E65" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F65" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="D66" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E66" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F66" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="D67" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E67" s="6" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F67" s="6" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="B68" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="D69" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E69" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F69" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="D70" s="6" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E70" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F70" s="6" t="n">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="D71" s="6" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E71" s="6" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F71" s="6" t="n">
         <x:v>1020</x:v>
       </x:c>
     </x:row>
@@ -4144,7 +8061,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E36"/>
+  <x:dimension ref="A1:E63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4165,166 +8082,324 @@
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5"/>
+    <x:row r="6" spans="1:5">
+      <x:c r="C6" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="C7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="B9" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="C10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="C8" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+    <x:row r="11" spans="1:5">
+      <x:c r="C11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="B10" s="1" t="s">
+    <x:row r="14" spans="1:5">
+      <x:c r="B14" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="B11" s="3" t="s">
+    <x:row r="15" spans="1:5">
+      <x:c r="B15" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C11" s="3" t="s">
+      <x:c r="C15" s="3" t="s">
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5"/>
-    <x:row r="13" spans="1:5">
-      <x:c r="C13" s="2" t="s">
+    <x:row r="16" spans="1:5">
+      <x:c r="C16" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="C14" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
+    <x:row r="17" spans="1:5">
+      <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="D15" s="5" t="s">
+    <x:row r="18" spans="1:5">
+      <x:c r="D18" s="5" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E15" s="5" t="s">
+      <x:c r="E18" s="5" t="s">
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="D16" s="6" t="s">
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="6" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E16" s="6" t="s">
+      <x:c r="E19" s="6" t="s">
         <x:v>86</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="D17" s="6" t="s">
+    <x:row r="20" spans="1:5">
+      <x:c r="D20" s="6" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E17" s="6" t="s">
+      <x:c r="E20" s="6" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="B19" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5"/>
-    <x:row r="21" spans="1:5">
-      <x:c r="C21" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
     <x:row r="22" spans="1:5">
-      <x:c r="C22" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>90</x:v>
+      <x:c r="B22" s="1" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
-      <x:c r="C23" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>91</x:v>
+      <x:c r="B23" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="C25" s="4" t="s">
-        <x:v>93</x:v>
+      <x:c r="C25" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="C26" s="4" t="s">
-        <x:v>94</x:v>
+      <x:c r="D26" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E26" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="D27" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
-      <x:c r="B28" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="B29" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C29" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5"/>
+      <x:c r="D28" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
     <x:row r="31" spans="1:5">
-      <x:c r="C31" s="2" t="s">
+      <x:c r="B31" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="C32" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="C33" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="C34" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5">
-      <x:c r="B33" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:5"/>
+      <x:c r="D34" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="C36" s="4" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="C37" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="B39" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="C40" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="C41" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="C42" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D35" s="0" t="s">
+      <x:c r="D42" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="C43" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="C44" s="4" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="C45" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="B48" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="B49" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C49" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="C50" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="B52" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="B53" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C53" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="C54" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="B57" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5">
+      <x:c r="C58" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:5">
-      <x:c r="C36" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
+    <x:row r="59" spans="1:5">
+      <x:c r="C59" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5">
+      <x:c r="B61" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5">
+      <x:c r="C62" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5">
+      <x:c r="C63" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
     </x:row>
@@ -4342,7 +8417,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E19"/>
+  <x:dimension ref="A1:E32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4371,90 +8446,178 @@
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5"/>
+    <x:row r="6" spans="1:5">
+      <x:c r="C6" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="C7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="B9" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="C10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="C8" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+    <x:row r="11" spans="1:5">
+      <x:c r="C11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="B10" s="1" t="s">
+    <x:row r="14" spans="1:5">
+      <x:c r="B14" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5"/>
-    <x:row r="12" spans="1:5">
-      <x:c r="C12" s="2" t="s">
+    <x:row r="15" spans="1:5">
+      <x:c r="C15" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
+    <x:row r="16" spans="1:5">
+      <x:c r="C16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="D14" s="5" t="s">
+    <x:row r="17" spans="1:5">
+      <x:c r="D17" s="5" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E14" s="5" t="s">
+      <x:c r="E17" s="5" t="s">
         <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="D15" s="6" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="D16" s="6" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="D17" s="6" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="D18" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="D19" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="D20" s="6" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="D21" s="6" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="D22" s="6" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E19" s="6" t="s">
+      <x:c r="E22" s="6" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="B24" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="C25" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="C26" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="D27" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E27" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="D28" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="D29" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="6" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="D30" s="6" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E30" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="D31" s="6" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E31" s="6" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="D32" s="6" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E32" s="6" t="s">
         <x:v>114</x:v>
       </x:c>
     </x:row>
@@ -4472,7 +8635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D18"/>
+  <x:dimension ref="A1:D29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4491,1278 +8654,44 @@
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:4"/>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4"/>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheeta.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:AI45"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:35">
-      <x:c r="A1" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:35">
-      <x:c r="B3" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:35">
-      <x:c r="B5" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:35"/>
-    <x:row r="7" spans="1:35">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:35">
-      <x:c r="D8" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G8" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:35">
-      <x:c r="D9" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F9" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="G9" s="6" t="n">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:35">
-      <x:c r="D10" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F10" s="7">
-        <x:v>28126</x:v>
-      </x:c>
-      <x:c r="G10" s="6" t="n">
-        <x:v>500</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:35">
-      <x:c r="D11" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E11" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F11" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-      <x:c r="G11" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:35">
-      <x:c r="C12" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:35">
-      <x:c r="C13" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:35">
-      <x:c r="D14" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E14" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F14" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G14" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:35">
-      <x:c r="D15" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F15" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-      <x:c r="G15" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:35">
-      <x:c r="B17" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:35"/>
-    <x:row r="19" spans="1:35">
-      <x:c r="C19" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:35">
-      <x:c r="D20" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E20" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F20" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G20" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:35">
-      <x:c r="D21" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E21" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="F21" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="G21" s="6" t="n">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:35">
-      <x:c r="D22" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E22" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F22" s="7">
-        <x:v>28126</x:v>
-      </x:c>
-      <x:c r="G22" s="6" t="n">
-        <x:v>500</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:35">
-      <x:c r="D23" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E23" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F23" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-      <x:c r="G23" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:35">
-      <x:c r="C24" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:35">
-      <x:c r="C25" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:35">
-      <x:c r="D26" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E26" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F26" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G26" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:35">
-      <x:c r="D27" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E27" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F27" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-      <x:c r="G27" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:35">
-      <x:c r="B29" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:35"/>
-    <x:row r="31" spans="1:35">
-      <x:c r="C31" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:35">
-      <x:c r="D32" s="5" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E32" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:35">
-      <x:c r="D33" s="6" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E33" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:35">
-      <x:c r="D34" s="6" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E34" s="6" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:35">
-      <x:c r="D35" s="6" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E35" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:35">
-      <x:c r="D36" s="6" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E36" s="6" t="n">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:35">
-      <x:c r="C37" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:35">
-      <x:c r="D38" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E38" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F38" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G38" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:35">
-      <x:c r="D39" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E39" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="F39" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="G39" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:35">
-      <x:c r="B41" s="1" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:35"/>
-    <x:row r="43" spans="1:35">
-      <x:c r="C43" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:35">
-      <x:c r="D44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="H44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="J44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="K44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="L44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="M44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="N44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="O44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="P44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="Q44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="R44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="S44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="T44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="U44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="V44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="W44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="X44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="Y44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="Z44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="AA44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="AB44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="AC44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="AD44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="AE44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="AF44" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="AG44" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="AH44" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="AI44" s="5" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:35">
-      <x:c r="D45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="F45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="G45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="H45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="I45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="J45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="K45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="L45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="M45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="N45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="O45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="P45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="Q45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="R45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="S45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="T45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="U45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="V45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="W45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="X45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="Y45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="Z45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="AA45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="AC45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="AD45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="AE45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AF45" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="AG45" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="AH45" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-      <x:c r="AI45" s="6" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetb.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F44"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="B5" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6"/>
-    <x:row r="7" spans="1:6">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="D8" s="5" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="D9" s="6" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="D10" s="6" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="D11" s="6" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E11" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="C12" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="D13" s="5" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E13" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="D14" s="6" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="D15" s="6" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="D16" s="6" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="E16" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="C17" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="D18" s="5" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E18" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="D19" s="6" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E19" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="D20" s="6" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="E20" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="C21" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="C22" s="4" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="C23" s="4" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="D24" s="5" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E24" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="D25" s="6" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E25" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:6">
-      <x:c r="D26" s="6" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E26" s="6" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:6">
-      <x:c r="D27" s="6" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="E27" s="7">
-        <x:v>27311</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="B29" s="1" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:6"/>
-    <x:row r="31" spans="1:6">
-      <x:c r="C31" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="D32" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E32" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F32" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="D33" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E33" s="6" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F33" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="D34" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E34" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F34" s="7">
-        <x:v>28126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:6">
-      <x:c r="D35" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E35" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F35" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="C36" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="D37" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E37" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F37" s="5" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="D38" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E38" s="6" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F38" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:6">
-      <x:c r="D39" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E39" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F39" s="7">
-        <x:v>28126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:6">
-      <x:c r="D40" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E40" s="6" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F40" s="7">
-        <x:v>27123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6">
-      <x:c r="C41" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:6">
-      <x:c r="D42" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E42" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F42" s="5" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:6">
-      <x:c r="D43" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E43" s="6" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F43" s="7">
-        <x:v>26581</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:6">
-      <x:c r="D44" s="6" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E44" s="6" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F44" s="7">
-        <x:v>28126</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetc.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
+      <x:c r="B9" s="1" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetd.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4"/>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheete.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D13"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetf.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D16"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4"/>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4"/>
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
     <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>200</x:v>
+      <x:c r="B14" s="1" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -5770,7 +8699,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -5778,7 +8707,70 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="B18" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="B27" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
